--- a/0_Bill_Of_material/[BOM]_list.xlsx
+++ b/0_Bill_Of_material/[BOM]_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t xml:space="preserve">Bill Of Material (Electric Part)</t>
   </si>
@@ -191,40 +191,79 @@
     <t xml:space="preserve">Cavo 14 awg (20m)</t>
   </si>
   <si>
+    <t xml:space="preserve">wire for the internal climb robot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cavo12 Awg (20m)</t>
   </si>
   <si>
-    <t xml:space="preserve">BLCD 6384 120KV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other_link</t>
+    <t xml:space="preserve">wire for winch components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLCD 6374 150KV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">used inside winch</t>
   </si>
   <si>
     <t xml:space="preserve">Alimentatore 600W</t>
   </si>
   <si>
-    <t xml:space="preserve">fine corsa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">encoder rot. 100P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odirve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">guaina intrecciata (10m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pisotne (32*200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Profilo 20*40 mm (al metro)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cuscinetto a sfera (6 pezzi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubo pneumatico (8 mm interno)</t>
+    <t xml:space="preserve">PS to supply internal robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch end run (fine corsa) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">To stop and set the state of each rope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotary encoder 100P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To know the position about rope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odirve S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To control the motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esp32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To communicate with each part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PET Braided Sleeving (10m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To reinforce the weight of the robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piston (32*200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To allow the right jump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ball bearing (6 pezzi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pneumatic tube (inside diameter 8 mm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To transport air in all point of robot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminum profile 20*40 mm (al metro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To build the structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal angles for aluminum profiles</t>
   </si>
 </sst>
 </file>
@@ -235,7 +274,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -288,8 +327,38 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +425,12 @@
         <bgColor rgb="FFFFE599"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA6A6"/>
+        <bgColor rgb="FFCC99FF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
@@ -433,7 +508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,31 +641,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,7 +789,7 @@
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFD966"/>
       <rgbColor rgb="FFA4C2F4"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFFFA6A6"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFE599"/>
       <rgbColor rgb="FF3C78D8"/>
@@ -843,7 +990,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:M81"/>
+  <dimension ref="B3:L81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
@@ -877,7 +1024,6 @@
         <v>953.99</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
@@ -901,8 +1047,6 @@
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="0"/>
-      <c r="M4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="n">
@@ -926,15 +1070,12 @@
       </c>
       <c r="H5" s="9"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="K6" s="0"/>
-      <c r="M6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="n">
@@ -957,8 +1098,6 @@
         <v>230</v>
       </c>
       <c r="H7" s="9"/>
-      <c r="K7" s="0"/>
-      <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="n">
@@ -981,8 +1120,6 @@
         <v>202</v>
       </c>
       <c r="H8" s="9"/>
-      <c r="K8" s="0"/>
-      <c r="M8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="n">
@@ -998,8 +1135,6 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="9"/>
-      <c r="K9" s="0"/>
-      <c r="M9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="n">
@@ -1022,8 +1157,6 @@
         <v>68.99</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="K10" s="0"/>
-      <c r="M10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="n">
@@ -1046,8 +1179,6 @@
         <v>11</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="K11" s="0"/>
-      <c r="M11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="n">
@@ -1070,24 +1201,18 @@
         <v>20</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="K12" s="0"/>
-      <c r="M12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="n">
         <v>9</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="K13" s="0"/>
-      <c r="M13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="n">
         <v>10</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="K14" s="0"/>
-      <c r="M14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="n">
@@ -1101,8 +1226,6 @@
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
-      <c r="K15" s="0"/>
-      <c r="M15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="n">
@@ -1122,8 +1245,6 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="10"/>
-      <c r="K16" s="0"/>
-      <c r="M16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="n">
@@ -1133,8 +1254,6 @@
         <v>19</v>
       </c>
       <c r="H17" s="10"/>
-      <c r="K17" s="0"/>
-      <c r="M17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="n">
@@ -1143,12 +1262,10 @@
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="10"/>
-      <c r="K18" s="0"/>
-      <c r="M18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="n">
@@ -1158,8 +1275,6 @@
         <v>21</v>
       </c>
       <c r="H19" s="10"/>
-      <c r="K19" s="0"/>
-      <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="n">
@@ -1169,8 +1284,6 @@
         <v>22</v>
       </c>
       <c r="H20" s="10"/>
-      <c r="K20" s="0"/>
-      <c r="M20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="n">
@@ -1184,8 +1297,6 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
-      <c r="K21" s="0"/>
-      <c r="M21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
@@ -1208,40 +1319,30 @@
         <v>231</v>
       </c>
       <c r="H22" s="19"/>
-      <c r="K22" s="0"/>
-      <c r="M22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
         <v>19</v>
       </c>
       <c r="H23" s="10"/>
-      <c r="K23" s="0"/>
-      <c r="M23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="5" t="n">
         <v>20</v>
       </c>
       <c r="H24" s="10"/>
-      <c r="K24" s="0"/>
-      <c r="M24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="n">
         <v>21</v>
       </c>
       <c r="H25" s="10"/>
-      <c r="K25" s="0"/>
-      <c r="M25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="5" t="n">
         <v>22</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="K26" s="0"/>
-      <c r="M26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="20" t="n">
@@ -1253,16 +1354,6 @@
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
       <c r="H27" s="22"/>
-      <c r="K27" s="0"/>
-      <c r="M27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K28" s="0"/>
-      <c r="M28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="23" t="s">
@@ -1274,8 +1365,6 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
-      <c r="K30" s="0"/>
-      <c r="M30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="24" t="s">
@@ -1299,8 +1388,6 @@
       <c r="H31" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K31" s="0"/>
-      <c r="M31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="25" t="n">
@@ -1323,8 +1410,6 @@
         <v>17</v>
       </c>
       <c r="H32" s="10"/>
-      <c r="K32" s="0"/>
-      <c r="M32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="25" t="n">
@@ -1347,8 +1432,6 @@
         <v>32</v>
       </c>
       <c r="H33" s="10"/>
-      <c r="K33" s="0"/>
-      <c r="M33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="25" t="n">
@@ -1363,8 +1446,6 @@
         <v>0</v>
       </c>
       <c r="H34" s="10"/>
-      <c r="K34" s="0"/>
-      <c r="M34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="25" t="n">
@@ -1379,8 +1460,6 @@
         <v>0</v>
       </c>
       <c r="H35" s="10"/>
-      <c r="K35" s="0"/>
-      <c r="M35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="25" t="n">
@@ -1395,8 +1474,6 @@
         <v>0</v>
       </c>
       <c r="H36" s="10"/>
-      <c r="K36" s="0"/>
-      <c r="M36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="25" t="n">
@@ -1411,8 +1488,6 @@
         <v>0</v>
       </c>
       <c r="H37" s="10"/>
-      <c r="K37" s="0"/>
-      <c r="M37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="25" t="n">
@@ -1430,8 +1505,6 @@
         <v>0</v>
       </c>
       <c r="H38" s="10"/>
-      <c r="K38" s="0"/>
-      <c r="M38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="25" t="n">
@@ -1443,8 +1516,6 @@
         <v>0</v>
       </c>
       <c r="H39" s="10"/>
-      <c r="K39" s="0"/>
-      <c r="M39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="25" t="n">
@@ -1456,8 +1527,6 @@
         <v>0</v>
       </c>
       <c r="H40" s="10"/>
-      <c r="K40" s="0"/>
-      <c r="M40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="25" t="n">
@@ -1469,8 +1538,6 @@
         <v>0</v>
       </c>
       <c r="H41" s="10"/>
-      <c r="K41" s="0"/>
-      <c r="M41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="25" t="n">
@@ -1482,8 +1549,6 @@
         <v>0</v>
       </c>
       <c r="H42" s="10"/>
-      <c r="K42" s="0"/>
-      <c r="M42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="25" t="n">
@@ -1495,8 +1560,6 @@
         <v>0</v>
       </c>
       <c r="H43" s="10"/>
-      <c r="K43" s="0"/>
-      <c r="M43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="25" t="n">
@@ -1508,8 +1571,6 @@
         <v>0</v>
       </c>
       <c r="H44" s="10"/>
-      <c r="K44" s="0"/>
-      <c r="M44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="25" t="n">
@@ -1521,8 +1582,6 @@
         <v>0</v>
       </c>
       <c r="H45" s="10"/>
-      <c r="K45" s="0"/>
-      <c r="M45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="25" t="n">
@@ -1534,8 +1593,6 @@
         <v>0</v>
       </c>
       <c r="H46" s="10"/>
-      <c r="K46" s="0"/>
-      <c r="M46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="25" t="n">
@@ -1547,8 +1604,6 @@
         <v>0</v>
       </c>
       <c r="H47" s="10"/>
-      <c r="K47" s="0"/>
-      <c r="M47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="25" t="n">
@@ -1560,8 +1615,6 @@
         <v>0</v>
       </c>
       <c r="H48" s="10"/>
-      <c r="K48" s="0"/>
-      <c r="M48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="25" t="n">
@@ -1573,8 +1626,6 @@
         <v>0</v>
       </c>
       <c r="H49" s="10"/>
-      <c r="K49" s="0"/>
-      <c r="M49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="25" t="n">
@@ -1586,8 +1637,6 @@
         <v>0</v>
       </c>
       <c r="H50" s="10"/>
-      <c r="K50" s="0"/>
-      <c r="M50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="25" t="n">
@@ -1599,8 +1648,6 @@
         <v>0</v>
       </c>
       <c r="H51" s="10"/>
-      <c r="K51" s="0"/>
-      <c r="M51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="25" t="n">
@@ -1612,8 +1659,6 @@
         <v>0</v>
       </c>
       <c r="H52" s="10"/>
-      <c r="K52" s="0"/>
-      <c r="M52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="25" t="n">
@@ -1625,8 +1670,6 @@
         <v>0</v>
       </c>
       <c r="H53" s="10"/>
-      <c r="K53" s="0"/>
-      <c r="M53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="27" t="n">
@@ -1641,14 +1684,9 @@
         <v>0</v>
       </c>
       <c r="H54" s="22"/>
-      <c r="K54" s="0"/>
-      <c r="M54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0"/>
       <c r="E55" s="1"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="28" t="s">
@@ -1686,7 +1724,6 @@
       <c r="D59" s="11"/>
       <c r="E59" s="1"/>
       <c r="F59" s="14"/>
-      <c r="G59" s="0"/>
       <c r="H59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,7 +1737,6 @@
         <v>39</v>
       </c>
       <c r="F60" s="14"/>
-      <c r="G60" s="0"/>
       <c r="H60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1749,6 @@
       <c r="E61" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G61" s="0"/>
       <c r="H61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1761,6 @@
       <c r="E62" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="0"/>
       <c r="H62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1737,7 +1771,6 @@
         <v>44</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="G63" s="0"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1781,6 @@
         <v>45</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="G64" s="0"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1791,6 @@
         <v>46</v>
       </c>
       <c r="E65" s="1"/>
-      <c r="G65" s="0"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1801,6 @@
         <v>47</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="G66" s="0"/>
       <c r="H66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1811,6 @@
         <v>48</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="G67" s="0"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1789,7 +1818,6 @@
         <v>10</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="G68" s="0"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1833,6 @@
       <c r="E69" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G69" s="0"/>
       <c r="H69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1813,7 +1840,6 @@
         <v>12</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="G70" s="0"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1853,6 @@
         <v>53</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="G71" s="0"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1835,7 +1860,6 @@
         <v>14</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="G72" s="0"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,7 +1867,6 @@
         <v>15</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="G73" s="0"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,7 +1874,6 @@
         <v>16</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="G74" s="0"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,7 +1881,6 @@
         <v>17</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="G75" s="0"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1888,6 @@
         <v>18</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="G76" s="0"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1875,7 +1895,6 @@
         <v>19</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="G77" s="0"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1883,7 +1902,6 @@
         <v>20</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="G78" s="0"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,7 +1909,6 @@
         <v>21</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="G79" s="0"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1899,7 +1916,6 @@
         <v>22</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="G80" s="0"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,662 +1969,690 @@
   <dimension ref="B1:M94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
+      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="33" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="14.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="33" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="35.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="33" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="33" width="14.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="33" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="M2" s="1"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="4" t="n">
-        <f aca="false">SUM(G5:G14) + SUM(G18:G29)</f>
-        <v>686.26</v>
-      </c>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="n">
+      <c r="C5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="40" t="n">
         <v>58.25</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="40" t="n">
         <f aca="false">F5*E5</f>
         <v>58.25</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="40" t="n">
         <v>25.99</v>
       </c>
-      <c r="G6" s="14" t="n">
+      <c r="G6" s="40" t="n">
         <f aca="false">F6*E6</f>
         <v>25.99</v>
       </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="n">
+      <c r="H6" s="41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="C7" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="40" t="n">
         <v>40.99</v>
       </c>
-      <c r="G7" s="14" t="n">
+      <c r="G7" s="40" t="n">
         <f aca="false">F7*E7</f>
         <v>40.99</v>
       </c>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="n">
+      <c r="H7" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="34" t="n">
+      <c r="C8" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="43" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="14" t="n">
-        <v>74</v>
-      </c>
-      <c r="G8" s="14" t="n">
+      <c r="F8" s="40" t="n">
+        <v>119</v>
+      </c>
+      <c r="G8" s="40" t="n">
         <f aca="false">F8*E8</f>
-        <v>148</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="n">
+        <v>238</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="C9" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="40" t="n">
         <v>66.99</v>
       </c>
-      <c r="G9" s="14" t="n">
+      <c r="G9" s="40" t="n">
         <f aca="false">F9*E9</f>
         <v>66.99</v>
       </c>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="n">
+      <c r="H9" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="C10" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="40" t="n">
         <v>10.99</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="40" t="n">
         <f aca="false">F10*E10</f>
         <v>10.99</v>
       </c>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="5" t="n">
+      <c r="H10" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11" t="n">
+      <c r="C11" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="40" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="40" t="n">
         <f aca="false">F11*E11</f>
         <v>60</v>
       </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="5" t="n">
+      <c r="H11" s="41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="C12" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>76.41</v>
-      </c>
-      <c r="G12" s="14" t="n">
+      <c r="F12" s="40" t="n">
+        <v>150</v>
+      </c>
+      <c r="G12" s="40" t="n">
         <f aca="false">F12*E12</f>
-        <v>152.82</v>
-      </c>
-      <c r="H12" s="33"/>
+        <v>300</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="10"/>
+      <c r="C13" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" s="40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="40" t="n">
+        <f aca="false">F13*E13</f>
+        <v>30</v>
+      </c>
+      <c r="H13" s="41" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="46" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="51" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25" t="n">
+      <c r="B18" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="C18" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="40" t="n">
         <v>8.89</v>
       </c>
-      <c r="G18" s="14" t="n">
+      <c r="G18" s="40" t="n">
         <f aca="false">F18*E18</f>
         <v>17.78</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="41" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="25" t="n">
+      <c r="B19" s="52" t="n">
         <v>2</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="1" t="n">
+      <c r="C19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="n">
+      <c r="F19" s="40" t="n">
         <v>34.28</v>
       </c>
-      <c r="G19" s="14" t="n">
+      <c r="G19" s="40" t="n">
         <f aca="false">F19*E19</f>
         <v>34.28</v>
       </c>
-      <c r="H19" s="10"/>
+      <c r="H19" s="41" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="25" t="n">
+      <c r="B20" s="52" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="n">
+      <c r="C20" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="40" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="G20" s="40" t="n">
+        <f aca="false">F20*E20</f>
+        <v>9.65</v>
+      </c>
+      <c r="H20" s="41"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="40" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G21" s="40" t="n">
+        <f aca="false">F21*E21</f>
+        <v>19.99</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F22" s="40" t="n">
         <v>13.51</v>
       </c>
-      <c r="G20" s="14" t="n">
-        <f aca="false">F20*E20</f>
+      <c r="G22" s="40" t="n">
+        <f aca="false">F22*E22</f>
         <v>40.53</v>
       </c>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="25" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="H22" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="52" t="n">
+        <v>6</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="14" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="G21" s="14" t="n">
-        <f aca="false">F21*E21</f>
-        <v>9.65</v>
-      </c>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="25" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="F23" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" s="40" t="n">
+        <f aca="false">F23*E23</f>
+        <v>7</v>
+      </c>
+      <c r="H23" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="52" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="41"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="53" t="n">
+        <v>8</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="55"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F22" s="14" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G22" s="14" t="n">
-        <f aca="false">F22*E22</f>
-        <v>19.99</v>
-      </c>
-      <c r="H22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="H23" s="33"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="25" t="n">
-        <v>7</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="27" t="n">
-        <v>8</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K57" s="1"/>
-      <c r="M57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K58" s="1"/>
-      <c r="M58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K59" s="1"/>
-      <c r="M59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K60" s="1"/>
-      <c r="M60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K61" s="1"/>
-      <c r="M61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K62" s="1"/>
-      <c r="M62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K63" s="1"/>
-      <c r="M63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K64" s="1"/>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K65" s="1"/>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K66" s="1"/>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K67" s="1"/>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K68" s="1"/>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K69" s="1"/>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K70" s="1"/>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K71" s="1"/>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K72" s="1"/>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K73" s="1"/>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K74" s="1"/>
-      <c r="M74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K75" s="1"/>
-      <c r="M75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K76" s="1"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K77" s="1"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K78" s="1"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K79" s="1"/>
-      <c r="M79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K80" s="1"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K81" s="1"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K82" s="1"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="M90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="E28" s="57" t="n">
+        <f aca="false">SUM(G5:G14) + SUM(G18:G29)</f>
+        <v>960.44</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K29" s="34"/>
+      <c r="M29" s="34"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="M55" s="34"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K57" s="34"/>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K58" s="34"/>
+      <c r="M58" s="34"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K59" s="34"/>
+      <c r="M59" s="34"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K60" s="34"/>
+      <c r="M60" s="34"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K61" s="34"/>
+      <c r="M61" s="34"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K62" s="34"/>
+      <c r="M62" s="34"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K63" s="34"/>
+      <c r="M63" s="34"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K64" s="34"/>
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K65" s="34"/>
+      <c r="M65" s="34"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K66" s="34"/>
+      <c r="M66" s="34"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K67" s="34"/>
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K68" s="34"/>
+      <c r="M68" s="34"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K69" s="34"/>
+      <c r="M69" s="34"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K70" s="34"/>
+      <c r="M70" s="34"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K71" s="34"/>
+      <c r="M71" s="34"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K72" s="34"/>
+      <c r="M72" s="34"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K73" s="34"/>
+      <c r="M73" s="34"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K74" s="34"/>
+      <c r="M74" s="34"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K75" s="34"/>
+      <c r="M75" s="34"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K76" s="34"/>
+      <c r="M76" s="34"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K77" s="34"/>
+      <c r="M77" s="34"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K78" s="34"/>
+      <c r="M78" s="34"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K79" s="34"/>
+      <c r="M79" s="34"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K80" s="34"/>
+      <c r="M80" s="34"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K81" s="34"/>
+      <c r="M81" s="34"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K82" s="34"/>
+      <c r="M82" s="34"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="34"/>
+      <c r="G83" s="34"/>
+      <c r="K83" s="34"/>
+      <c r="M83" s="34"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="K84" s="34"/>
+      <c r="M84" s="34"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="M85" s="34"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="M86" s="34"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="M87" s="34"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="M88" s="34"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="M89" s="34"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="M90" s="34"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="K91" s="34"/>
+      <c r="M91" s="34"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="K92" s="34"/>
+      <c r="M92" s="34"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="K93" s="34"/>
+      <c r="M93" s="34"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="K94" s="34"/>
+      <c r="M94" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2621,16 +2665,16 @@
     <hyperlink ref="D6" r:id="rId3" display="Link"/>
     <hyperlink ref="D7" r:id="rId4" display="link"/>
     <hyperlink ref="D8" r:id="rId5" display="link"/>
-    <hyperlink ref="H8" r:id="rId6" display="other_link"/>
-    <hyperlink ref="D9" r:id="rId7" display="link"/>
-    <hyperlink ref="D10" r:id="rId8" display="link"/>
-    <hyperlink ref="D11" r:id="rId9" display="link"/>
-    <hyperlink ref="D12" r:id="rId10" display="link"/>
-    <hyperlink ref="D18" r:id="rId11" display="link"/>
-    <hyperlink ref="D19" r:id="rId12" display="link"/>
-    <hyperlink ref="D20" r:id="rId13" display="link"/>
-    <hyperlink ref="D21" r:id="rId14" display="link"/>
-    <hyperlink ref="D22" r:id="rId15" display="link"/>
+    <hyperlink ref="D9" r:id="rId6" display="link"/>
+    <hyperlink ref="D10" r:id="rId7" display="link"/>
+    <hyperlink ref="D11" r:id="rId8" display="link"/>
+    <hyperlink ref="D12" r:id="rId9" display="link"/>
+    <hyperlink ref="D18" r:id="rId10" display="link"/>
+    <hyperlink ref="D19" r:id="rId11" display="link"/>
+    <hyperlink ref="D20" r:id="rId12" display="link"/>
+    <hyperlink ref="D21" r:id="rId13" display="link"/>
+    <hyperlink ref="D22" r:id="rId14" display="link"/>
+    <hyperlink ref="D23" r:id="rId15" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/0_Bill_Of_material/[BOM]_list.xlsx
+++ b/0_Bill_Of_material/[BOM]_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
   <si>
     <t xml:space="preserve">Bill Of Material (Electric Part)</t>
   </si>
@@ -74,6 +74,12 @@
     <t xml:space="preserve">elettrovalvole</t>
   </si>
   <si>
+    <t xml:space="preserve">Cavo 14 awg (20m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wire for the internal climb robot</t>
+  </si>
+  <si>
     <t xml:space="preserve">Proposte</t>
   </si>
   <si>
@@ -185,13 +191,7 @@
     <t xml:space="preserve">VL53L0X</t>
   </si>
   <si>
-    <t xml:space="preserve">other link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavo 14 awg (20m)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wire for the internal climb robot</t>
+    <t xml:space="preserve">Alimentatore 1200w (36V)</t>
   </si>
   <si>
     <t xml:space="preserve">Cavo12 Awg (20m)</t>
@@ -206,12 +206,6 @@
     <t xml:space="preserve">used inside winch</t>
   </si>
   <si>
-    <t xml:space="preserve">Alimentatore 600W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS to supply internal robot</t>
-  </si>
-  <si>
     <t xml:space="preserve">Switch end run (fine corsa) </t>
   </si>
   <si>
@@ -236,6 +230,21 @@
     <t xml:space="preserve">To communicate with each part</t>
   </si>
   <si>
+    <t xml:space="preserve">step_down (36V-→5V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To convert voltage from 36v to 5 v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">step_down (36V-→8V)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levl logic shifetr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servo 25kg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PET Braided Sleeving (10m)</t>
   </si>
   <si>
@@ -264,6 +273,15 @@
   </si>
   <si>
     <t xml:space="preserve">Internal angles for aluminum profiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulley (puleggia)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belt transmission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screws and bolts</t>
   </si>
 </sst>
 </file>
@@ -274,7 +292,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -335,6 +353,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,9 +369,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -432,7 +457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -482,6 +507,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -508,7 +540,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,6 +601,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -641,39 +689,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -685,15 +721,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -701,7 +737,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -709,35 +745,47 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -992,8 +1040,8 @@
   </sheetPr>
   <dimension ref="B3:L81"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1021,7 +1069,7 @@
       </c>
       <c r="K3" s="4" t="n">
         <f aca="false">SUM(G5:G27) + SUM(G32:G54)</f>
-        <v>953.99</v>
+        <v>979.98</v>
       </c>
       <c r="L3" s="1"/>
     </row>
@@ -1206,7 +1254,25 @@
       <c r="B13" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="C13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>25.99</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <f aca="false">F13*E13</f>
+        <v>25.99</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="n">
@@ -1218,21 +1284,21 @@
       <c r="B15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="C15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="n">
         <v>12</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>10</v>
@@ -1251,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H17" s="10"/>
     </row>
@@ -1260,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>10</v>
@@ -1272,7 +1338,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -1281,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -1289,36 +1355,36 @@
       <c r="B21" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16" t="n">
+      <c r="C22" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="18" t="n">
+      <c r="F22" s="22" t="n">
         <v>231</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="22" t="n">
         <f aca="false">F22*E22</f>
         <v>231</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="5" t="n">
@@ -1345,56 +1411,56 @@
       <c r="H26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="20" t="n">
+      <c r="B27" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="B30" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="24" t="s">
+      <c r="H31" s="28" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25" t="n">
+      <c r="B32" s="29" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>10</v>
@@ -1412,11 +1478,11 @@
       <c r="H32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="25" t="n">
+      <c r="B33" s="29" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>10</v>
@@ -1434,11 +1500,11 @@
       <c r="H33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="25" t="n">
+      <c r="B34" s="29" t="n">
         <v>3</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E34" s="1"/>
       <c r="G34" s="11" t="n">
@@ -1448,11 +1514,11 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25" t="n">
+      <c r="B35" s="29" t="n">
         <v>4</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" s="1"/>
       <c r="G35" s="11" t="n">
@@ -1462,11 +1528,11 @@
       <c r="H35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="25" t="n">
+      <c r="B36" s="29" t="n">
         <v>5</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E36" s="1"/>
       <c r="G36" s="11" t="n">
@@ -1476,11 +1542,11 @@
       <c r="H36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25" t="n">
+      <c r="B37" s="29" t="n">
         <v>6</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E37" s="1"/>
       <c r="G37" s="11" t="n">
@@ -1490,14 +1556,14 @@
       <c r="H37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="25" t="n">
+      <c r="B38" s="29" t="n">
         <v>7</v>
       </c>
-      <c r="C38" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>33</v>
+      <c r="C38" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="E38" s="1"/>
       <c r="G38" s="11" t="n">
@@ -1507,7 +1573,7 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="25" t="n">
+      <c r="B39" s="29" t="n">
         <v>8</v>
       </c>
       <c r="E39" s="1"/>
@@ -1518,7 +1584,7 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="25" t="n">
+      <c r="B40" s="29" t="n">
         <v>9</v>
       </c>
       <c r="E40" s="1"/>
@@ -1529,7 +1595,7 @@
       <c r="H40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="25" t="n">
+      <c r="B41" s="29" t="n">
         <v>10</v>
       </c>
       <c r="E41" s="1"/>
@@ -1540,7 +1606,7 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="25" t="n">
+      <c r="B42" s="29" t="n">
         <v>11</v>
       </c>
       <c r="E42" s="1"/>
@@ -1551,7 +1617,7 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="25" t="n">
+      <c r="B43" s="29" t="n">
         <v>12</v>
       </c>
       <c r="E43" s="1"/>
@@ -1562,7 +1628,7 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="25" t="n">
+      <c r="B44" s="29" t="n">
         <v>13</v>
       </c>
       <c r="E44" s="1"/>
@@ -1573,7 +1639,7 @@
       <c r="H44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="25" t="n">
+      <c r="B45" s="29" t="n">
         <v>14</v>
       </c>
       <c r="E45" s="1"/>
@@ -1584,7 +1650,7 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="25" t="n">
+      <c r="B46" s="29" t="n">
         <v>15</v>
       </c>
       <c r="E46" s="1"/>
@@ -1595,7 +1661,7 @@
       <c r="H46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="25" t="n">
+      <c r="B47" s="29" t="n">
         <v>16</v>
       </c>
       <c r="E47" s="1"/>
@@ -1606,7 +1672,7 @@
       <c r="H47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="25" t="n">
+      <c r="B48" s="29" t="n">
         <v>17</v>
       </c>
       <c r="E48" s="1"/>
@@ -1617,7 +1683,7 @@
       <c r="H48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="25" t="n">
+      <c r="B49" s="29" t="n">
         <v>18</v>
       </c>
       <c r="E49" s="1"/>
@@ -1628,7 +1694,7 @@
       <c r="H49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="25" t="n">
+      <c r="B50" s="29" t="n">
         <v>19</v>
       </c>
       <c r="E50" s="1"/>
@@ -1639,7 +1705,7 @@
       <c r="H50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25" t="n">
+      <c r="B51" s="29" t="n">
         <v>20</v>
       </c>
       <c r="E51" s="1"/>
@@ -1650,7 +1716,7 @@
       <c r="H51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="25" t="n">
+      <c r="B52" s="29" t="n">
         <v>21</v>
       </c>
       <c r="E52" s="1"/>
@@ -1661,7 +1727,7 @@
       <c r="H52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="25" t="n">
+      <c r="B53" s="29" t="n">
         <v>22</v>
       </c>
       <c r="E53" s="1"/>
@@ -1672,54 +1738,54 @@
       <c r="H53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="27" t="n">
+      <c r="B54" s="31" t="n">
         <v>23</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21" t="n">
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25" t="n">
         <f aca="false">F54*E54</f>
         <v>0</v>
       </c>
-      <c r="H54" s="22"/>
+      <c r="H54" s="26"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E55" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
+      <c r="B57" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="29"/>
-      <c r="H58" s="29"/>
+      <c r="C58" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="30" t="n">
+      <c r="B59" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>37</v>
+      <c r="C59" s="35" t="s">
+        <v>39</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="1"/>
@@ -1727,207 +1793,207 @@
       <c r="H59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="30" t="n">
+      <c r="B60" s="34" t="n">
         <v>2</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" s="14"/>
       <c r="H60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="30" t="n">
+      <c r="B61" s="34" t="n">
         <v>3</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="30" t="n">
+      <c r="B62" s="34" t="n">
         <v>4</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="30" t="n">
+      <c r="B63" s="34" t="n">
         <v>5</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E63" s="1"/>
       <c r="H63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="30" t="n">
+      <c r="B64" s="34" t="n">
         <v>6</v>
       </c>
-      <c r="C64" s="31" t="s">
-        <v>45</v>
+      <c r="C64" s="35" t="s">
+        <v>47</v>
       </c>
       <c r="E64" s="1"/>
       <c r="H64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="30" t="n">
+      <c r="B65" s="34" t="n">
         <v>7</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E65" s="1"/>
       <c r="H65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="30" t="n">
+      <c r="B66" s="34" t="n">
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E66" s="1"/>
       <c r="H66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="30" t="n">
+      <c r="B67" s="34" t="n">
         <v>9</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E67" s="1"/>
       <c r="H67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="30" t="n">
+      <c r="B68" s="34" t="n">
         <v>10</v>
       </c>
       <c r="E68" s="1"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="30" t="n">
+      <c r="B69" s="34" t="n">
         <v>11</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="30" t="n">
+      <c r="B70" s="34" t="n">
         <v>12</v>
       </c>
       <c r="E70" s="1"/>
       <c r="H70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="30" t="n">
+      <c r="B71" s="34" t="n">
         <v>13</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E71" s="1"/>
       <c r="H71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="30" t="n">
+      <c r="B72" s="34" t="n">
         <v>14</v>
       </c>
       <c r="E72" s="1"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="30" t="n">
+      <c r="B73" s="34" t="n">
         <v>15</v>
       </c>
       <c r="E73" s="1"/>
       <c r="H73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="30" t="n">
+      <c r="B74" s="34" t="n">
         <v>16</v>
       </c>
       <c r="E74" s="1"/>
       <c r="H74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="30" t="n">
+      <c r="B75" s="34" t="n">
         <v>17</v>
       </c>
       <c r="E75" s="1"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="30" t="n">
+      <c r="B76" s="34" t="n">
         <v>18</v>
       </c>
       <c r="E76" s="1"/>
       <c r="H76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="30" t="n">
+      <c r="B77" s="34" t="n">
         <v>19</v>
       </c>
       <c r="E77" s="1"/>
       <c r="H77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="30" t="n">
+      <c r="B78" s="34" t="n">
         <v>20</v>
       </c>
       <c r="E78" s="1"/>
       <c r="H78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="30" t="n">
+      <c r="B79" s="34" t="n">
         <v>21</v>
       </c>
       <c r="E79" s="1"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="30" t="n">
+      <c r="B80" s="34" t="n">
         <v>22</v>
       </c>
       <c r="E80" s="1"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="32" t="n">
+      <c r="B81" s="36" t="n">
         <v>23</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="22"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1945,11 +2011,12 @@
     <hyperlink ref="D10" r:id="rId5" display="link"/>
     <hyperlink ref="D11" r:id="rId6" display="link"/>
     <hyperlink ref="D12" r:id="rId7" display="link"/>
-    <hyperlink ref="D16" r:id="rId8" display="link"/>
-    <hyperlink ref="D18" r:id="rId9" display="link"/>
-    <hyperlink ref="D22" r:id="rId10" display="link"/>
-    <hyperlink ref="D32" r:id="rId11" display="link"/>
-    <hyperlink ref="D33" r:id="rId12" display="link"/>
+    <hyperlink ref="D13" r:id="rId8" display="Link"/>
+    <hyperlink ref="D16" r:id="rId9" display="link"/>
+    <hyperlink ref="D18" r:id="rId10" display="link"/>
+    <hyperlink ref="D22" r:id="rId11" display="link"/>
+    <hyperlink ref="D32" r:id="rId12" display="link"/>
+    <hyperlink ref="D33" r:id="rId13" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1966,715 +2033,606 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:M94"/>
+  <dimension ref="B3:K32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="33" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="38.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="14.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="33" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="34" width="35.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="33" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="33" width="14.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="33" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="38.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="14.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="15" width="35.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="15" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="15" width="14.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="15" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="M2" s="34"/>
-    </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="34"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="39" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="37" t="n">
+      <c r="B5" s="40" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="38" t="n">
+      <c r="C5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="40" t="n">
-        <v>58.25</v>
-      </c>
-      <c r="G5" s="40" t="n">
+      <c r="F5" s="17" t="n">
+        <v>66</v>
+      </c>
+      <c r="G5" s="17" t="n">
         <f aca="false">F5*E5</f>
-        <v>58.25</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
+        <v>66</v>
+      </c>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="37" t="n">
+      <c r="B6" s="40" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <f aca="false">F6*E6</f>
+        <v>40.99</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="G7" s="17" t="n">
+        <f aca="false">F7*E7</f>
+        <v>238</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="40" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="C8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="40" t="n">
-        <v>25.99</v>
-      </c>
-      <c r="G6" s="40" t="n">
-        <f aca="false">F6*E6</f>
-        <v>25.99</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="37" t="n">
+      <c r="F8" s="17" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <f aca="false">F8*E8</f>
+        <v>10.99</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="40" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <f aca="false">F9*E9</f>
+        <v>60</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="n">
+        <v>150</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <f aca="false">F10*E10</f>
+        <v>300</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="34" t="n">
+      <c r="F11" s="17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <f aca="false">F11*E11</f>
+        <v>30</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="40" t="n">
+        <v>8</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="46" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="40" t="n">
-        <v>40.99</v>
-      </c>
-      <c r="G7" s="40" t="n">
-        <f aca="false">F7*E7</f>
-        <v>40.99</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="37" t="n">
+      <c r="F12" s="17" t="n">
+        <v>9</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <f aca="false">F12*E12</f>
+        <v>9</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="40"/>
+      <c r="C13" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <f aca="false">F13*E13</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <f aca="false">F14*E14</f>
+        <v>7</v>
+      </c>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="47" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="49" t="n">
+        <v>30</v>
+      </c>
+      <c r="G15" s="49" t="n">
+        <f aca="false">F15*E15</f>
+        <v>30</v>
+      </c>
+      <c r="H15" s="50"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="43" t="n">
+      <c r="E21" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="40" t="n">
-        <v>119</v>
-      </c>
-      <c r="G8" s="40" t="n">
-        <f aca="false">F8*E8</f>
-        <v>238</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="34" t="n">
+      <c r="F22" s="17" t="n">
+        <v>8.89</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <f aca="false">F22*E22</f>
+        <v>17.78</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="40" t="n">
-        <v>66.99</v>
-      </c>
-      <c r="G9" s="40" t="n">
-        <f aca="false">F9*E9</f>
-        <v>66.99</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="37" t="n">
-        <v>6</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="34" t="n">
+      <c r="F23" s="17" t="n">
+        <v>32.28</v>
+      </c>
+      <c r="G23" s="17" t="n">
+        <f aca="false">F23*E23</f>
+        <v>32.28</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="40" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="G10" s="40" t="n">
-        <f aca="false">F10*E10</f>
-        <v>10.99</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" s="40" t="n">
-        <v>30</v>
-      </c>
-      <c r="G11" s="40" t="n">
-        <f aca="false">F11*E11</f>
-        <v>60</v>
-      </c>
-      <c r="H11" s="41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" s="40" t="n">
-        <v>150</v>
-      </c>
-      <c r="G12" s="40" t="n">
-        <f aca="false">F12*E12</f>
-        <v>300</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="40" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" s="40" t="n">
-        <f aca="false">F13*E13</f>
-        <v>30</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="46" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" s="40" t="n">
-        <v>8.89</v>
-      </c>
-      <c r="G18" s="40" t="n">
-        <f aca="false">F18*E18</f>
-        <v>17.78</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="40" t="n">
-        <v>34.28</v>
-      </c>
-      <c r="G19" s="40" t="n">
-        <f aca="false">F19*E19</f>
-        <v>34.28</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="52" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="40" t="n">
+      <c r="F24" s="17" t="n">
         <v>9.65</v>
       </c>
-      <c r="G20" s="40" t="n">
-        <f aca="false">F20*E20</f>
+      <c r="G24" s="17" t="n">
+        <f aca="false">F24*E24</f>
         <v>9.65</v>
       </c>
-      <c r="H20" s="41"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="52" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="40" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="G21" s="40" t="n">
-        <f aca="false">F21*E21</f>
-        <v>19.99</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="52" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" s="40" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="G22" s="40" t="n">
-        <f aca="false">F22*E22</f>
-        <v>40.53</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="52" t="n">
-        <v>6</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="40" t="n">
-        <v>7</v>
-      </c>
-      <c r="G23" s="40" t="n">
-        <f aca="false">F23*E23</f>
-        <v>7</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="52" t="n">
-        <v>7</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="41"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="53" t="n">
+        <v>4</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <f aca="false">F25*E25</f>
+        <v>19.99</v>
+      </c>
+      <c r="H25" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="53" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" s="17" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="G26" s="17" t="n">
+        <f aca="false">F26*E26</f>
+        <v>54.04</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="53" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" s="17" t="n">
+        <f aca="false">F27*E27</f>
+        <v>7</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F28" s="17" t="n">
+        <v>13</v>
+      </c>
+      <c r="G28" s="17" t="n">
+        <f aca="false">F28*E28</f>
+        <v>26</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="55" t="n">
         <v>8</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="56" t="s">
+      <c r="C29" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" s="57" t="n">
+        <v>15</v>
+      </c>
+      <c r="G29" s="57" t="n">
+        <f aca="false">F29*E29</f>
+        <v>30</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C30" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="49" t="n">
+        <v>20</v>
+      </c>
+      <c r="G30" s="49" t="n">
+        <v>20</v>
+      </c>
+      <c r="H30" s="59"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="E28" s="57" t="n">
-        <f aca="false">SUM(G5:G14) + SUM(G18:G29)</f>
-        <v>960.44</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K29" s="34"/>
-      <c r="M29" s="34"/>
-    </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="M55" s="34"/>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="M56" s="34"/>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K57" s="34"/>
-      <c r="M57" s="34"/>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K58" s="34"/>
-      <c r="M58" s="34"/>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K59" s="34"/>
-      <c r="M59" s="34"/>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K60" s="34"/>
-      <c r="M60" s="34"/>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K61" s="34"/>
-      <c r="M61" s="34"/>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K62" s="34"/>
-      <c r="M62" s="34"/>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K63" s="34"/>
-      <c r="M63" s="34"/>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K64" s="34"/>
-      <c r="M64" s="34"/>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K65" s="34"/>
-      <c r="M65" s="34"/>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K66" s="34"/>
-      <c r="M66" s="34"/>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K67" s="34"/>
-      <c r="M67" s="34"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K68" s="34"/>
-      <c r="M68" s="34"/>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K69" s="34"/>
-      <c r="M69" s="34"/>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K70" s="34"/>
-      <c r="M70" s="34"/>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K71" s="34"/>
-      <c r="M71" s="34"/>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K72" s="34"/>
-      <c r="M72" s="34"/>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K73" s="34"/>
-      <c r="M73" s="34"/>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K74" s="34"/>
-      <c r="M74" s="34"/>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K75" s="34"/>
-      <c r="M75" s="34"/>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K76" s="34"/>
-      <c r="M76" s="34"/>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K77" s="34"/>
-      <c r="M77" s="34"/>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K78" s="34"/>
-      <c r="M78" s="34"/>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K79" s="34"/>
-      <c r="M79" s="34"/>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K80" s="34"/>
-      <c r="M80" s="34"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K81" s="34"/>
-      <c r="M81" s="34"/>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K82" s="34"/>
-      <c r="M82" s="34"/>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="M83" s="34"/>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="M84" s="34"/>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="M85" s="34"/>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="M86" s="34"/>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="M87" s="34"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="M88" s="34"/>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="M89" s="34"/>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="34"/>
-      <c r="G90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="M90" s="34"/>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="34"/>
-      <c r="G91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="M91" s="34"/>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="M92" s="34"/>
-    </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="M93" s="34"/>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="K94" s="34"/>
-      <c r="M94" s="34"/>
+      <c r="E32" s="61" t="n">
+        <f aca="false">SUM(G5:G15) + SUM(G22:G30)</f>
+        <v>1019.72</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B20:H20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="link"/>
-    <hyperlink ref="H5" r:id="rId2" display="other link"/>
-    <hyperlink ref="D6" r:id="rId3" display="Link"/>
-    <hyperlink ref="D7" r:id="rId4" display="link"/>
-    <hyperlink ref="D8" r:id="rId5" display="link"/>
-    <hyperlink ref="D9" r:id="rId6" display="link"/>
-    <hyperlink ref="D10" r:id="rId7" display="link"/>
-    <hyperlink ref="D11" r:id="rId8" display="link"/>
-    <hyperlink ref="D12" r:id="rId9" display="link"/>
-    <hyperlink ref="D18" r:id="rId10" display="link"/>
-    <hyperlink ref="D19" r:id="rId11" display="link"/>
-    <hyperlink ref="D20" r:id="rId12" display="link"/>
-    <hyperlink ref="D21" r:id="rId13" display="link"/>
-    <hyperlink ref="D22" r:id="rId14" display="link"/>
-    <hyperlink ref="D23" r:id="rId15" display="link"/>
+    <hyperlink ref="D6" r:id="rId2" display="link"/>
+    <hyperlink ref="D7" r:id="rId3" display="link"/>
+    <hyperlink ref="D8" r:id="rId4" display="link"/>
+    <hyperlink ref="D9" r:id="rId5" display="link"/>
+    <hyperlink ref="D10" r:id="rId6" display="link"/>
+    <hyperlink ref="D12" r:id="rId7" display="link"/>
+    <hyperlink ref="D13" r:id="rId8" display="link"/>
+    <hyperlink ref="D14" r:id="rId9" display="link"/>
+    <hyperlink ref="D15" r:id="rId10" display="link"/>
+    <hyperlink ref="D22" r:id="rId11" display="link"/>
+    <hyperlink ref="D23" r:id="rId12" display="link"/>
+    <hyperlink ref="D24" r:id="rId13" display="link"/>
+    <hyperlink ref="D25" r:id="rId14" display="link"/>
+    <hyperlink ref="D26" r:id="rId15" display="link"/>
+    <hyperlink ref="D27" r:id="rId16" display="link"/>
+    <hyperlink ref="D28" r:id="rId17" display="link"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
